--- a/Descargas/R15_2º Juzgado De Familia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
+++ b/Descargas/R15_2º Juzgado De Familia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
@@ -271,7 +271,7 @@
         </is>
       </c>
       <c r="B7" s="65">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -281,7 +281,7 @@
         </is>
       </c>
       <c r="B8" s="65">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
